--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,105 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>shit</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -154,25 +154,25 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
@@ -181,106 +181,88 @@
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>top</t>
+    <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>digital</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>new</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -641,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -760,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
@@ -860,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -960,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.7719298245614035</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K9">
-        <v>0.7586206896551724</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,13 +1166,13 @@
         <v>52</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.6166666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,10 +1245,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,13 +1316,13 @@
         <v>55</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.4666666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,13 +1466,13 @@
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.4615384615384616</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>0.4545454545454545</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.631578947368421</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.4166666666666667</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1634,13 +1616,13 @@
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.2550091074681239</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.3333333333333333</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K24">
-        <v>0.3043478260869565</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.572463768115942</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C25">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.2857142857142857</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5652173913043478</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K26">
-        <v>0.2608695652173913</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5319148936170213</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.2522768670309654</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L27">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>821</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +1942,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5294117647058824</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.2439024390243902</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +1992,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.2203389830508475</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2042,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4871794871794872</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.180327868852459</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2134,13 +2116,13 @@
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.1684210526315789</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2152,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,7 +2142,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3928571428571428</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -2178,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.1666666666666667</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2202,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2210,37 +2192,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3571428571428572</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>10</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.1538461538461539</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2252,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2260,13 +2242,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2278,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.1521739130434783</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2302,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2310,13 +2292,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2328,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.1408450704225352</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L35">
         <v>10</v>
@@ -2352,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2360,13 +2342,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1538461538461539</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2378,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.1296296296296296</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2402,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2410,37 +2392,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03678929765886288</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K37">
-        <v>0.1232876712328767</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2452,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>64</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2460,13 +2442,13 @@
         <v>78</v>
       </c>
       <c r="K38">
-        <v>0.12</v>
+        <v>0.03162650602409638</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2478,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2486,13 +2468,13 @@
         <v>79</v>
       </c>
       <c r="K39">
-        <v>0.09411764705882353</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2504,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>77</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2512,13 +2494,13 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>0.05109489051094891</v>
+        <v>0.02304737516005122</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2530,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>130</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2538,13 +2520,13 @@
         <v>81</v>
       </c>
       <c r="K41">
-        <v>0.04814814814814815</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2556,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>514</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2564,13 +2546,13 @@
         <v>82</v>
       </c>
       <c r="K42">
-        <v>0.0466867469879518</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2582,163 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.04398826979472141</v>
-      </c>
-      <c r="L43">
-        <v>15</v>
-      </c>
-      <c r="M43">
-        <v>15</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.0353356890459364</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45">
-        <v>0.02597402597402598</v>
-      </c>
-      <c r="L45">
-        <v>16</v>
-      </c>
-      <c r="M45">
-        <v>16</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46">
-        <v>0.02419354838709677</v>
-      </c>
-      <c r="L46">
-        <v>42</v>
-      </c>
-      <c r="M46">
-        <v>42</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47">
-        <v>0.02304737516005122</v>
-      </c>
-      <c r="L47">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>18</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48">
-        <v>0.01904761904761905</v>
-      </c>
-      <c r="L48">
-        <v>6</v>
-      </c>
-      <c r="M48">
-        <v>6</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
